--- a/ejemplo_archivo_demandas.xlsx
+++ b/ejemplo_archivo_demandas.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppServ\www\servicobranza_actual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppServ\www\SBS_Actual\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20610" windowHeight="7740"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20616" windowHeight="7740"/>
   </bookViews>
   <sheets>
     <sheet name="Demandas Enviadas" sheetId="4" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,9 +34,6 @@
     <t>RUT</t>
   </si>
   <si>
-    <t>PAGARE</t>
-  </si>
-  <si>
     <t>COD PROCURADOR</t>
   </si>
   <si>
@@ -47,12 +44,15 @@
   </si>
   <si>
     <t>FECHA DEMANDA</t>
+  </si>
+  <si>
+    <t>Id Juicio</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,42 +427,42 @@
   <dimension ref="A1:AC1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="17.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="1"/>
-    <col min="2" max="2" width="16.28515625" style="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="39.5703125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="17.140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="4" customWidth="1"/>
-    <col min="7" max="21" width="17.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="17.140625" style="1"/>
-    <col min="23" max="23" width="17.140625" style="1" collapsed="1"/>
-    <col min="24" max="29" width="17.140625" style="1"/>
-    <col min="30" max="16384" width="17.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" width="17.109375" style="1"/>
+    <col min="2" max="2" width="16.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="39.5546875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.109375" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="17.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="4" customWidth="1"/>
+    <col min="7" max="21" width="17.109375" style="1" customWidth="1"/>
+    <col min="22" max="22" width="17.109375" style="1"/>
+    <col min="23" max="23" width="17.109375" style="1" collapsed="1"/>
+    <col min="24" max="29" width="17.109375" style="1"/>
+    <col min="30" max="16384" width="17.109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
